--- a/Data/DB_Detail.xlsx
+++ b/Data/DB_Detail.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jenkins\workspace\FFWF_QA_Automation\FFWF\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE307FBF-8B3B-46B6-9067-208F69C4F0A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query" sheetId="2" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -56,12 +62,6 @@
     <t>RequestId</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\Resp.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\Ship.xml</t>
-  </si>
-  <si>
     <t>ns2:FulfillmentResponse/ns2:ResponseHeader/RequestId</t>
   </si>
   <si>
@@ -140,18 +140,6 @@
     <t>FulfillmentShipmentRequest/CustomerDetails/CustomerAccountIdentifier/qb:Id</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_DELIVERY_PROCESS_ENS_REQUEST.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_DELIVERY_PROCESS_ENS_RESPONSE.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_INITIATED_RETURNS_ENS_REQUEST.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_INITIATED_RETURNS_ENS_RESPONSE.xml</t>
-  </si>
-  <si>
     <t>VDP_RequestId</t>
   </si>
   <si>
@@ -197,30 +185,15 @@
     <t>VDP_IOM_Req</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_DELIVERY_PROCESS_IOM_REQUEST.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_DELIVERY_PROCESS_IOM_RESPONSE.xml</t>
-  </si>
-  <si>
     <t>Tagtobereplaced_VDP_Resp</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_INITIATED_RETURNS_IOM_REQUEST.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\VENDOR_INITIATED_RETURNS_IOM_RESPONSE.xml</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT * FROM </t>
   </si>
   <si>
     <t>ServiceOrderNumber</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\DvarOm_Modem_Cancel_Return_Response.xml</t>
-  </si>
-  <si>
     <t>DOM_RequestId</t>
   </si>
   <si>
@@ -251,12 +224,6 @@
     <t>PureTv_VDP_RequestId</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\PURETV_VENDOR_DELIVERY_PROCESS_REQUEST.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\PURETV_VENDOR_DELIVERY_PROCESS_RESPONSE.xml</t>
-  </si>
-  <si>
     <t>ns2:FulfillmentShipmentRequest/ns2:ShipmentRequestHeader/RequestId</t>
   </si>
   <si>
@@ -293,21 +260,9 @@
     <t>PureTv_VIR_CAI</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\PURETV_VENDOR_INITIATED_RETURNS_REQUEST.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\PURETV_VENDOR_INITIATED_RETURNS_RESPONSE.xml</t>
-  </si>
-  <si>
     <t>ns2:FulfillmentReturnRequest/ns2:CustomerDetails/ns2:CustomerAccountIdentifier/Id</t>
   </si>
   <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\FF_MASTER_PROCESS_REDESIGN_FF_Response.xml</t>
-  </si>
-  <si>
-    <t>C:\automation\APPLICATIONS\FFWF\XML\FF_MASTER_PROCESS_REDESIGN_FF_Shipment.xml</t>
-  </si>
-  <si>
     <t>S110IPP064</t>
   </si>
   <si>
@@ -384,12 +339,66 @@
   </si>
   <si>
     <t>K13543930</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\Resp.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\Ship.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\FF_MASTER_PROCESS_REDESIGN_FF_Response.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\FF_MASTER_PROCESS_REDESIGN_FF_Shipment.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\DvarOm_Modem_Cancel_Return_Response.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_DELIVERY_PROCESS_ENS_REQUEST.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_DELIVERY_PROCESS_ENS_RESPONSE.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_DELIVERY_PROCESS_IOM_REQUEST.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_DELIVERY_PROCESS_IOM_RESPONSE.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_INITIATED_RETURNS_ENS_REQUEST.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_INITIATED_RETURNS_ENS_RESPONSE.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_INITIATED_RETURNS_IOM_REQUEST.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\VENDOR_INITIATED_RETURNS_IOM_RESPONSE.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\PURETV_VENDOR_DELIVERY_PROCESS_REQUEST.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\PURETV_VENDOR_DELIVERY_PROCESS_RESPONSE.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\PURETV_VENDOR_INITIATED_RETURNS_REQUEST.xml</t>
+  </si>
+  <si>
+    <t>C:\jenkins\workspace\FFWF_QA_Automation\FFWF\XML\PURETV_VENDOR_INITIATED_RETURNS_RESPONSE.xml</t>
+  </si>
+  <si>
+    <t>S110IPS001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,6 +578,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -616,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,9 +661,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,6 +713,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,10 +905,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -886,135 +932,135 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5">
-        <v>74907</v>
+        <v>83851</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5">
-        <v>74907</v>
+        <v>83851</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -1023,116 +1069,116 @@
         <v>1944962</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="5">
-        <v>74907</v>
+        <v>83851</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5">
-        <v>74907</v>
+        <v>83851</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1141,164 +1187,164 @@
         <v>1944962</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="10">
@@ -1306,27 +1352,27 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12">
@@ -1334,105 +1380,105 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="10" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="10">
@@ -1440,27 +1486,27 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12">
@@ -1468,93 +1514,93 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="10">
@@ -1562,23 +1608,23 @@
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="12">
@@ -1586,91 +1632,91 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="11" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="10" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="10">
@@ -1678,23 +1724,23 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="12">
@@ -1702,13 +1748,13 @@
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J34" s="13"/>
     </row>
@@ -1719,11 +1765,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,13 +1786,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E1" s="22"/>
     </row>
@@ -1755,17 +1801,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G2">
         <v>14302428</v>
@@ -1776,20 +1822,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -1797,17 +1843,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="24" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>14302428</v>
@@ -1818,20 +1864,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="24" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1839,17 +1885,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="24" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G6">
         <v>11209031</v>

--- a/Data/DB_Detail.xlsx
+++ b/Data/DB_Detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jenkins\workspace\FFWF_QA_Automation\FFWF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE307FBF-8B3B-46B6-9067-208F69C4F0A5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E96BD3AF-E5DC-4BE5-97E5-481EFD69CC80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>ns2:FulfillmentReturnRequest/ns2:CustomerDetails/ns2:CustomerAccountIdentifier/Id</t>
-  </si>
-  <si>
-    <t>S110IPP064</t>
   </si>
   <si>
     <t>Resp_RequestId</t>
@@ -961,7 +958,7 @@
     </row>
     <row r="2" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -973,7 +970,7 @@
         <v>83851</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -985,7 +982,7 @@
     </row>
     <row r="3" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -994,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="4" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -1021,7 +1018,7 @@
         <v>83851</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1033,7 +1030,7 @@
     </row>
     <row r="5" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -1042,10 +1039,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1057,7 +1054,7 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -1066,10 +1063,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="5">
-        <v>1944962</v>
+        <v>1957703</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="7" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -1093,7 +1090,7 @@
         <v>83851</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1105,7 +1102,7 @@
     </row>
     <row r="8" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
@@ -1114,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="9" spans="1:10" ht="143.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -1141,7 +1138,7 @@
         <v>83851</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1152,7 +1149,7 @@
     </row>
     <row r="10" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -1161,10 +1158,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1175,7 +1172,7 @@
     </row>
     <row r="11" spans="1:10" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -1184,10 +1181,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="5">
-        <v>1944962</v>
+        <v>1957703</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1208,7 +1205,7 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1230,7 +1227,7 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1248,7 +1245,7 @@
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1264,20 +1261,20 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>24</v>
@@ -1292,20 +1289,20 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>25</v>
@@ -1320,20 +1317,20 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>26</v>
@@ -1352,16 +1349,16 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>27</v>
@@ -1380,11 +1377,11 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
@@ -1398,20 +1395,20 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>32</v>
@@ -1426,20 +1423,20 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>33</v>
@@ -1454,20 +1451,20 @@
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>34</v>
@@ -1486,16 +1483,16 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>35</v>
@@ -1514,11 +1511,11 @@
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
@@ -1532,14 +1529,14 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1556,14 +1553,14 @@
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1580,14 +1577,14 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -1608,10 +1605,10 @@
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -1632,7 +1629,7 @@
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1648,14 +1645,14 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -1672,14 +1669,14 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -1696,14 +1693,14 @@
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -1724,10 +1721,10 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -1748,7 +1745,7 @@
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -1792,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="22"/>
     </row>
@@ -1801,17 +1798,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
       </c>
       <c r="G2">
         <v>14302428</v>
@@ -1822,20 +1819,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
         <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
@@ -1843,17 +1840,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <v>14302428</v>
@@ -1864,20 +1861,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1885,17 +1882,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>11209031</v>
